--- a/EXTB/Format/利用承認書_シアター.xlsx
+++ b/EXTB/Format/利用承認書_シアター.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0707\Downloads\format\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="14625"/>
+    <workbookView xWindow="14388" yWindow="-12" windowWidth="14436" windowHeight="14628"/>
   </bookViews>
   <sheets>
     <sheet name="利用承認書" sheetId="4" r:id="rId1"/>
@@ -124,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -1085,6 +1090,234 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="34" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1115,242 +1348,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="34" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="36" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1367,6 +1372,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1648,7 +1656,7 @@
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>株式会社テレビ朝日　総合ビジネス局　イベント事業センター</a:t>
+            <a:t>株式会社テレビ朝日　総合ビジネス局　イベント事業部</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2142,7 +2150,7 @@
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>株式会社テレビ朝日　総合ビジネス局　イベント事業センター</a:t>
+            <a:t>株式会社テレビ朝日　総合ビジネス局　イベント事業部</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2361,7 +2369,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2403,7 +2411,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2438,7 +2446,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2653,32 +2661,32 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="10" customWidth="1"/>
-    <col min="2" max="11" width="8.625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="10" customWidth="1"/>
+    <col min="2" max="11" width="8.6640625" style="9" customWidth="1"/>
     <col min="12" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+    <row r="1" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="108"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -2692,23 +2700,23 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -2722,35 +2730,35 @@
       <c r="K4" s="13"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:12" s="11" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="11" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="1"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="37"/>
-    </row>
-    <row r="6" spans="1:12" s="11" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H5" s="111"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="113"/>
+    </row>
+    <row r="6" spans="1:12" s="11" customFormat="1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="1"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-    </row>
-    <row r="7" spans="1:12" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+    </row>
+    <row r="7" spans="1:12" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
@@ -2764,108 +2772,108 @@
       <c r="K7" s="20"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="46" t="s">
+    <row r="8" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="49"/>
-    </row>
-    <row r="9" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="38" t="s">
+      <c r="B8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="104"/>
+    </row>
+    <row r="9" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-    </row>
-    <row r="10" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="42" t="s">
+      <c r="B9" s="115"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="117"/>
+    </row>
+    <row r="10" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="45"/>
-    </row>
-    <row r="11" spans="1:12" s="117" customFormat="1" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="119" t="s">
+      <c r="B10" s="98"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="100"/>
+    </row>
+    <row r="11" spans="1:12" s="35" customFormat="1" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="58" t="s">
+    <row r="12" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-    </row>
-    <row r="13" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="50" t="s">
+      <c r="B12" s="93"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="96"/>
+    </row>
+    <row r="13" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-    </row>
-    <row r="14" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="50" t="s">
+      <c r="B13" s="87"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="107"/>
+    </row>
+    <row r="14" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
       <c r="I14" s="3" t="s">
         <v>7</v>
       </c>
@@ -2874,22 +2882,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="66" t="s">
+    <row r="15" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="70"/>
-    </row>
-    <row r="16" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="77"/>
+    </row>
+    <row r="16" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2903,135 +2911,135 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="71" t="s">
+    <row r="17" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74" t="s">
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="74" t="s">
+      <c r="H17" s="80"/>
+      <c r="I17" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="72"/>
-      <c r="K17" s="75"/>
-    </row>
-    <row r="18" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="63"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="78"/>
-    </row>
-    <row r="19" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="82"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="86"/>
-    </row>
-    <row r="20" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="79"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="86"/>
-    </row>
-    <row r="21" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="99"/>
-    </row>
-    <row r="22" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="87"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="90" t="s">
+      <c r="J17" s="79"/>
+      <c r="K17" s="82"/>
+    </row>
+    <row r="18" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="85"/>
+    </row>
+    <row r="19" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="69"/>
+    </row>
+    <row r="20" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="69"/>
+    </row>
+    <row r="21" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="61"/>
+    </row>
+    <row r="22" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="91"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="93"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55"/>
       <c r="K22" s="22"/>
     </row>
-    <row r="23" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="87"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="107"/>
+    <row r="23" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
       <c r="K23" s="23"/>
     </row>
-    <row r="24" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="108"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="111" t="s">
+    <row r="24" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="112"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="101"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:12" s="11" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="102"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
+    <row r="25" spans="1:12" s="11" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="25"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3044,7 +3052,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="26"/>
     </row>
-    <row r="27" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
@@ -3057,7 +3065,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="28"/>
     </row>
-    <row r="28" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
@@ -3070,7 +3078,7 @@
       <c r="J28" s="6"/>
       <c r="K28" s="28"/>
     </row>
-    <row r="29" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
@@ -3083,7 +3091,7 @@
       <c r="J29" s="6"/>
       <c r="K29" s="28"/>
     </row>
-    <row r="30" spans="1:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
@@ -3096,23 +3104,60 @@
       <c r="J30" s="8"/>
       <c r="K30" s="30"/>
     </row>
-    <row r="31" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="103" t="s">
+    <row r="31" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="A25:K25"/>
     <mergeCell ref="A31:K31"/>
@@ -3121,43 +3166,6 @@
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:K9"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3175,32 +3183,32 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="10" customWidth="1"/>
-    <col min="2" max="11" width="8.625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="10" customWidth="1"/>
+    <col min="2" max="11" width="8.6640625" style="9" customWidth="1"/>
     <col min="12" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+    <row r="1" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="108"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -3214,23 +3222,23 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="8.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -3244,37 +3252,37 @@
       <c r="K4" s="13"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:12" s="11" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="113" t="s">
+    <row r="5" spans="1:12" s="11" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="113"/>
+      <c r="B5" s="120"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="37"/>
-    </row>
-    <row r="6" spans="1:12" s="11" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H5" s="111"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="113"/>
+    </row>
+    <row r="6" spans="1:12" s="11" customFormat="1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
       <c r="B6" s="31"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-    </row>
-    <row r="7" spans="1:12" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+    </row>
+    <row r="7" spans="1:12" s="11" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
@@ -3288,58 +3296,58 @@
       <c r="K7" s="20"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="46" t="s">
+    <row r="8" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="49"/>
-    </row>
-    <row r="9" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="38" t="s">
+      <c r="B8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="104"/>
+    </row>
+    <row r="9" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-    </row>
-    <row r="10" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="42" t="s">
+      <c r="B9" s="115"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="117"/>
+    </row>
+    <row r="10" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="45"/>
-    </row>
-    <row r="11" spans="1:12" s="11" customFormat="1" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="120" t="s">
+      <c r="B10" s="98"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="100"/>
+    </row>
+    <row r="11" spans="1:12" s="11" customFormat="1" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
@@ -3349,47 +3357,47 @@
       <c r="K11" s="20"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="58" t="s">
+    <row r="12" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-    </row>
-    <row r="13" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="50" t="s">
+      <c r="B12" s="93"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="96"/>
+    </row>
+    <row r="13" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-    </row>
-    <row r="14" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="50" t="s">
+      <c r="B13" s="87"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="107"/>
+    </row>
+    <row r="14" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
       <c r="I14" s="3" t="s">
         <v>7</v>
       </c>
@@ -3398,22 +3406,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="66" t="s">
+    <row r="15" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="70"/>
-    </row>
-    <row r="16" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="77"/>
+    </row>
+    <row r="16" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3427,135 +3435,135 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="71" t="s">
+    <row r="17" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74" t="s">
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="74" t="s">
+      <c r="H17" s="80"/>
+      <c r="I17" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="72"/>
-      <c r="K17" s="75"/>
-    </row>
-    <row r="18" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="63"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="78"/>
-    </row>
-    <row r="19" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="82"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="86"/>
-    </row>
-    <row r="20" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="79"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="86"/>
-    </row>
-    <row r="21" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="94"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="99"/>
-    </row>
-    <row r="22" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="87"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="90" t="s">
+      <c r="J17" s="79"/>
+      <c r="K17" s="82"/>
+    </row>
+    <row r="18" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="85"/>
+    </row>
+    <row r="19" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="69"/>
+    </row>
+    <row r="20" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="69"/>
+    </row>
+    <row r="21" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="61"/>
+    </row>
+    <row r="22" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="91"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="93"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55"/>
       <c r="K22" s="22"/>
     </row>
-    <row r="23" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="87"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="107"/>
+    <row r="23" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
       <c r="K23" s="23"/>
     </row>
-    <row r="24" spans="1:12" s="11" customFormat="1" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="108"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="111" t="s">
+    <row r="24" spans="1:12" s="11" customFormat="1" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="112"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="101"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
       <c r="K24" s="24"/>
     </row>
-    <row r="25" spans="1:12" s="11" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="102"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
+    <row r="25" spans="1:12" s="11" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="25"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3568,7 +3576,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="26"/>
     </row>
-    <row r="27" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
@@ -3581,7 +3589,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="28"/>
     </row>
-    <row r="28" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
@@ -3594,7 +3602,7 @@
       <c r="J28" s="6"/>
       <c r="K28" s="28"/>
     </row>
-    <row r="29" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
@@ -3607,7 +3615,7 @@
       <c r="J29" s="6"/>
       <c r="K29" s="28"/>
     </row>
-    <row r="30" spans="1:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
@@ -3620,53 +3628,23 @@
       <c r="J30" s="8"/>
       <c r="K30" s="30"/>
     </row>
-    <row r="31" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="103" t="s">
+    <row r="31" spans="1:12" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:K20"/>
     <mergeCell ref="A25:K25"/>
     <mergeCell ref="A31:K31"/>
     <mergeCell ref="A5:B5"/>
@@ -3683,6 +3661,36 @@
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
